--- a/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766315</v>
+        <v>766317</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429195481</v>
+        <v>1429201661</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71267</v>
+        <v>71268</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110296657</v>
+        <v>110298182</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306176</v>
+        <v>1306193</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274707618</v>
+        <v>2274762675</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633454</v>
+        <v>633475</v>
       </c>
       <c r="D129" t="n">
-        <v>104966</v>
+        <v>104967</v>
       </c>
       <c r="E129" t="n">
-        <v>3428922434</v>
+        <v>3429081164</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585718</v>
+        <v>585734</v>
       </c>
       <c r="D132" t="n">
         <v>90780</v>
       </c>
       <c r="E132" t="n">
-        <v>3463694542</v>
+        <v>3464181007</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7023</v>
+        <v>7025</v>
       </c>
       <c r="D134" t="n">
         <v>1675</v>
       </c>
       <c r="E134" t="n">
-        <v>16879205</v>
+        <v>16886571</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39929</v>
+        <v>39930</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60367248</v>
+        <v>60367935</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12402</v>
+        <v>12405</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40299139</v>
+        <v>40365216</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95821</v>
+        <v>95822</v>
       </c>
       <c r="D171" t="n">
         <v>18308</v>
       </c>
       <c r="E171" t="n">
-        <v>490672924</v>
+        <v>490682924</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236822</v>
+        <v>236823</v>
       </c>
       <c r="D186" t="n">
         <v>46317</v>
       </c>
       <c r="E186" t="n">
-        <v>1189734250</v>
+        <v>1189739905</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
